--- a/L1-Ergebnisse-Normal.xlsx
+++ b/L1-Ergebnisse-Normal.xlsx
@@ -8,13 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF92A04A-B31D-4EB2-8019-ADD4A88F65CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E218CFCD-989B-4D38-B953-AB529F0459CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -114,6 +144,838 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Vergleich FTP-Algorithmen in L1 - Normaldaten</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Vergleich FTP-Algorithmen in L1 - Normaldaten</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E0C5CB9B-33E7-4A6E-8B13-3F1411B319A0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>best_next_aktive_robot</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{AC71CFD5-330F-4C52-AA3F-A43A2FB74C2C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>on_roboter_permutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C6386EBF-354B-4450-8A58-68F7472610E2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Anzahl Roboter</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Anzahl Roboter</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Approximationsfaktor</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagramm 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD99EBC-86DE-AEA2-964E-2267394203E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3584575" y="676275"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,7 +1298,7 @@
   <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7318,5 +8180,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/L1-Ergebnisse-Normal.xlsx
+++ b/L1-Ergebnisse-Normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73EB835-090F-4EE0-A52F-0655EDDB3A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54649052-F526-4A98-93D9-87BF897A8990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,18 +18,11 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$I$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Ergebnisse!$J$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Ergebnisse!$K$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$J$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$K$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Ergebnisse!$I$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Experiment</t>
   </si>
@@ -68,15 +61,40 @@
   <si>
     <t>greedy</t>
   </si>
+  <si>
+    <t>b_n</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Varianz</t>
+  </si>
+  <si>
+    <t>o_r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -126,26 +145,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -177,7 +196,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{76835598-3780-4CAE-8A30-E70A7A7324A3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>best_next_aktive_robot</cx:v>
             </cx:txData>
           </cx:tx>
@@ -189,7 +208,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9E5EEC94-DB0E-4488-82FB-A63F9A724AC1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>on_roboter_permutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -201,7 +220,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EE360A5E-B810-4EEF-B8A6-A028BC53CBE0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>greedy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -854,15 +873,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -899,7 +918,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4638675" y="803275"/>
+              <a:off x="0" y="987425"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1250,15 +1269,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K451"/>
+  <dimension ref="A1:X451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1289,8 +1308,23 @@
       <c r="K1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1324,8 +1358,23 @@
         <f>F2/C2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>MAX(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>VARA(I2:I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1359,8 +1408,23 @@
         <f t="shared" ref="K3:K66" si="2">F3/C3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(I52:I101)</f>
+        <v>1.1090337657034135</v>
+      </c>
+      <c r="P3">
+        <f>MAX(I52:I101)</f>
+        <v>1.6629834254143647</v>
+      </c>
+      <c r="Q3">
+        <f>VARA(I52:I101)</f>
+        <v>3.0616752415217496E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1394,8 +1458,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(I102:I151)</f>
+        <v>1.1202764828857081</v>
+      </c>
+      <c r="P4">
+        <f>MAX(I102:I151)</f>
+        <v>1.75</v>
+      </c>
+      <c r="Q4">
+        <f>VARA(I102:I151)</f>
+        <v>3.4944182145022547E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1429,8 +1508,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <f>N4+1</f>
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(I152:I201)</f>
+        <v>1.1844149665614925</v>
+      </c>
+      <c r="P5">
+        <f>MAX(I152:I201)</f>
+        <v>1.8123076923076924</v>
+      </c>
+      <c r="Q5">
+        <f>VARA(I152:I201)</f>
+        <v>3.9266449560952543E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1464,8 +1559,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="3">N5+1</f>
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(I202:I251)</f>
+        <v>1.2267728439690331</v>
+      </c>
+      <c r="P6">
+        <f>MAX(I202:I251)</f>
+        <v>1.6698113207547169</v>
+      </c>
+      <c r="Q6">
+        <f>VARA(I202:I251)</f>
+        <v>3.6409958829979445E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1499,8 +1610,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE(I252:I301)</f>
+        <v>1.2363202065702004</v>
+      </c>
+      <c r="P7">
+        <f>MAX(I252:I301)</f>
+        <v>1.6506550218340612</v>
+      </c>
+      <c r="Q7">
+        <f>VARA(I252:I301)</f>
+        <v>3.5788531009828844E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1534,8 +1661,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(I302:I351)</f>
+        <v>1.2958219958355894</v>
+      </c>
+      <c r="P8">
+        <f>MAX(I302:I351)</f>
+        <v>1.970873786407767</v>
+      </c>
+      <c r="Q8">
+        <f>VARA(I302:I351)</f>
+        <v>4.2212709985428934E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1569,8 +1712,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE(I352:I401)</f>
+        <v>1.3094844837698398</v>
+      </c>
+      <c r="P9">
+        <f>MAX(I352:I401)</f>
+        <v>2.0355329949238579</v>
+      </c>
+      <c r="Q9">
+        <f>VARA(I352:I401)</f>
+        <v>4.9755760175871473E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1604,8 +1763,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(I402:I451)</f>
+        <v>1.2704045508414497</v>
+      </c>
+      <c r="P10">
+        <f>MAX(I402:I451)</f>
+        <v>1.8536585365853659</v>
+      </c>
+      <c r="Q10">
+        <f>VARA(I402:I451)</f>
+        <v>3.0741216522908045E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1640,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1675,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1709,8 +1884,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1744,8 +1949,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>MAX(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>VARA(J2:J51)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGE(K2:K51)</f>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f>MAX(Q2:Q51)</f>
+        <v>9.1022184233134351E-2</v>
+      </c>
+      <c r="X14">
+        <f>VARA(Q2:Q51)</f>
+        <v>7.3548957519958824E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1779,8 +2014,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGE(J52:J101)</f>
+        <v>1.0055576374502713</v>
+      </c>
+      <c r="P15">
+        <f>MAX(J52:J101)</f>
+        <v>1.1509433962264151</v>
+      </c>
+      <c r="Q15">
+        <f>VARA(J52:J101)</f>
+        <v>6.0118436087409769E-4</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <f>AVERAGE(K52:K101)</f>
+        <v>1.0055576374502713</v>
+      </c>
+      <c r="W15">
+        <f>MAX(K52:K101)</f>
+        <v>1.1509433962264151</v>
+      </c>
+      <c r="X15">
+        <f>VARA(K52:K101)</f>
+        <v>6.0118436087409769E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1814,8 +2079,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(J102:J151)</f>
+        <v>1.1889347640377208</v>
+      </c>
+      <c r="P16">
+        <f>MAX(J102:J151)</f>
+        <v>2.0079365079365079</v>
+      </c>
+      <c r="Q16">
+        <f>VARA(J102:J151)</f>
+        <v>6.9119384116081692E-2</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <f>AVERAGE(K102:K151)</f>
+        <v>1.3163584794522631</v>
+      </c>
+      <c r="W16">
+        <f>MAX(K102:K151)</f>
+        <v>2.0940170940170941</v>
+      </c>
+      <c r="X16">
+        <f>VARA(K102:K151)</f>
+        <v>9.6018437059243247E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1849,8 +2144,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <f>N16+1</f>
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(J152:J201)</f>
+        <v>1.3751181266820758</v>
+      </c>
+      <c r="P17">
+        <f>MAX(I164:I213)</f>
+        <v>1.8123076923076924</v>
+      </c>
+      <c r="Q17">
+        <f>VARA(I164:I213)</f>
+        <v>4.101607883193345E-2</v>
+      </c>
+      <c r="U17">
+        <f>U16+1</f>
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <f>AVERAGE(K152:K201)</f>
+        <v>1.3924420338816177</v>
+      </c>
+      <c r="W17">
+        <f>MAX(K164:K213)</f>
+        <v>2.2577319587628866</v>
+      </c>
+      <c r="X17">
+        <f>VARA(K164:K213)</f>
+        <v>8.8866909954692888E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1884,8 +2211,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <f t="shared" ref="N18:N22" si="4">N17+1</f>
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(I214:I263)</f>
+        <v>1.2345236704145797</v>
+      </c>
+      <c r="P18">
+        <f>MAX(J152:J201)</f>
+        <v>2.2577319587628866</v>
+      </c>
+      <c r="Q18">
+        <f>VARA(J152:J201)</f>
+        <v>8.9906036300089268E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U22" si="5">U17+1</f>
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <f>AVERAGE(K214:K263)</f>
+        <v>1.2828350253570955</v>
+      </c>
+      <c r="W18">
+        <f>MAX(K152:K201)</f>
+        <v>2.2577319587628866</v>
+      </c>
+      <c r="X18">
+        <f>VARA(K152:K201)</f>
+        <v>8.5190446261713806E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1919,8 +2278,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE(J252:J301)</f>
+        <v>1.2754597300209314</v>
+      </c>
+      <c r="P19">
+        <f>MAX(J252:J301)</f>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="Q19">
+        <f>VARA(J252:J301)</f>
+        <v>3.0336325687164961E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <f>AVERAGE(K252:K301)</f>
+        <v>1.2579506325830669</v>
+      </c>
+      <c r="W19">
+        <f>MAX(K252:K301)</f>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="X19">
+        <f>VARA(K252:K301)</f>
+        <v>3.1346951154152779E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1954,8 +2345,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(J302:J351)</f>
+        <v>1.3311182560203974</v>
+      </c>
+      <c r="P20">
+        <f>MAX(J302:J351)</f>
+        <v>1.912621359223301</v>
+      </c>
+      <c r="Q20">
+        <f>VARA(J302:J351)</f>
+        <v>6.3156667524364066E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="V20">
+        <f>AVERAGE(K302:K351)</f>
+        <v>1.4455301597853971</v>
+      </c>
+      <c r="W20">
+        <f>MAX(K302:K351)</f>
+        <v>2.0825688073394497</v>
+      </c>
+      <c r="X20">
+        <f>VARA(K302:K351)</f>
+        <v>6.8121361509824105E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1989,8 +2412,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGE(J352:J401)</f>
+        <v>1.4822882446116719</v>
+      </c>
+      <c r="P21">
+        <f>MAX(J352:J401)</f>
+        <v>2.2341772151898733</v>
+      </c>
+      <c r="Q21">
+        <f>VARA(J352:J401)</f>
+        <v>9.1022184233134351E-2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <f>AVERAGE(K352:K401)</f>
+        <v>1.6373314361776283</v>
+      </c>
+      <c r="W21">
+        <f>MAX(K352:K401)</f>
+        <v>2.4746835443037973</v>
+      </c>
+      <c r="X21">
+        <f>VARA(K352:K401)</f>
+        <v>7.1597789425258698E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2024,8 +2479,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <f>AVERAGE(J402:J450)</f>
+        <v>1.6028679516565161</v>
+      </c>
+      <c r="P22">
+        <f>MAX(J402:J450)</f>
+        <v>2.064327485380117</v>
+      </c>
+      <c r="Q22">
+        <f>VARA(J402:J450)</f>
+        <v>4.5457354206460167E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="V22">
+        <f>AVERAGE(K402:K450)</f>
+        <v>1.6757534236774443</v>
+      </c>
+      <c r="W22">
+        <f>MAX(K402:K450)</f>
+        <v>2.8095238095238093</v>
+      </c>
+      <c r="X22">
+        <f>VARA(K402:K450)</f>
+        <v>8.0730216804110924E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2060,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2095,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2130,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2165,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2200,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2235,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2270,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2305,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2340,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3588,15 +4075,15 @@
         <v>4</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="3">D67/C67</f>
+        <f t="shared" ref="I67:I130" si="6">D67/C67</f>
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="4">E67/C67</f>
+        <f t="shared" ref="J67:J130" si="7">E67/C67</f>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="5">F67/C67</f>
+        <f t="shared" ref="K67:K130" si="8">F67/C67</f>
         <v>1</v>
       </c>
     </row>
@@ -3623,15 +4110,15 @@
         <v>4</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3098591549295775</v>
       </c>
       <c r="J68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3658,15 +4145,15 @@
         <v>4</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.350194552529183</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0544747081712063</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0544747081712063</v>
       </c>
     </row>
@@ -3693,15 +4180,15 @@
         <v>4</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3728,15 +4215,15 @@
         <v>4</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3763,15 +4250,15 @@
         <v>4</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5773195876288659</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3798,15 +4285,15 @@
         <v>4</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.054263565891473</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3833,15 +4320,15 @@
         <v>4</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3868,15 +4355,15 @@
         <v>4</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3903,15 +4390,15 @@
         <v>4</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0300751879699248</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3938,15 +4425,15 @@
         <v>4</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3973,15 +4460,15 @@
         <v>4</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4008,15 +4495,15 @@
         <v>4</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4043,15 +4530,15 @@
         <v>4</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4078,15 +4565,15 @@
         <v>4</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3962264150943395</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1509433962264151</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1509433962264151</v>
       </c>
     </row>
@@ -4113,15 +4600,15 @@
         <v>4</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3139013452914798</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4148,15 +4635,15 @@
         <v>4</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4183,15 +4670,15 @@
         <v>4</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4218,15 +4705,15 @@
         <v>4</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0864864864864865</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4253,15 +4740,15 @@
         <v>4</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3937823834196892</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4288,15 +4775,15 @@
         <v>4</v>
       </c>
       <c r="I87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.27</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4323,15 +4810,15 @@
         <v>4</v>
       </c>
       <c r="I88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4358,15 +4845,15 @@
         <v>4</v>
       </c>
       <c r="I89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4393,15 +4880,15 @@
         <v>4</v>
       </c>
       <c r="I90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1654135338345866</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4428,15 +4915,15 @@
         <v>4</v>
       </c>
       <c r="I91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4463,15 +4950,15 @@
         <v>4</v>
       </c>
       <c r="I92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4498,15 +4985,15 @@
         <v>4</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0440528634361232</v>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4533,15 +5020,15 @@
         <v>4</v>
       </c>
       <c r="I94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4568,15 +5055,15 @@
         <v>4</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1656050955414012</v>
       </c>
       <c r="J95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4603,15 +5090,15 @@
         <v>4</v>
       </c>
       <c r="I96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4638,15 +5125,15 @@
         <v>4</v>
       </c>
       <c r="I97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4673,15 +5160,15 @@
         <v>4</v>
       </c>
       <c r="I98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="J98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4708,15 +5195,15 @@
         <v>4</v>
       </c>
       <c r="I99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0877192982456141</v>
       </c>
       <c r="J99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4743,15 +5230,15 @@
         <v>4</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6629834254143647</v>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4778,15 +5265,15 @@
         <v>4</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3757575757575757</v>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4813,15 +5300,15 @@
         <v>5</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.125</v>
       </c>
       <c r="J102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.125</v>
       </c>
       <c r="K102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.125</v>
       </c>
     </row>
@@ -4848,15 +5335,15 @@
         <v>5</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0769230769230769</v>
       </c>
       <c r="J103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0769230769230769</v>
       </c>
       <c r="K103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0769230769230769</v>
       </c>
     </row>
@@ -4883,15 +5370,15 @@
         <v>5</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2434456928838951</v>
       </c>
       <c r="J104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0262172284644195</v>
       </c>
       <c r="K104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0262172284644195</v>
       </c>
     </row>
@@ -4918,15 +5405,15 @@
         <v>5</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4953,15 +5440,15 @@
         <v>5</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0904255319148937</v>
       </c>
       <c r="J106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.053191489361702</v>
       </c>
       <c r="K106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.053191489361702</v>
       </c>
     </row>
@@ -4988,15 +5475,15 @@
         <v>5</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7863247863247864</v>
       </c>
       <c r="K107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0940170940170941</v>
       </c>
     </row>
@@ -5023,15 +5510,15 @@
         <v>5</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4656862745098038</v>
       </c>
       <c r="J108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2205882352941178</v>
       </c>
       <c r="K108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3676470588235294</v>
       </c>
     </row>
@@ -5058,15 +5545,15 @@
         <v>5</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.056105610561056</v>
       </c>
       <c r="J109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.056105610561056</v>
       </c>
       <c r="K109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1221122112211221</v>
       </c>
     </row>
@@ -5093,15 +5580,15 @@
         <v>5</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2222222222222223</v>
       </c>
     </row>
@@ -5128,15 +5615,15 @@
         <v>5</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -5163,15 +5650,15 @@
         <v>5</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0804597701149425</v>
       </c>
       <c r="J112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0804597701149425</v>
       </c>
       <c r="K112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5198,15 +5685,15 @@
         <v>5</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2619047619047619</v>
       </c>
       <c r="J113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0873015873015872</v>
       </c>
       <c r="K113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2619047619047619</v>
       </c>
     </row>
@@ -5233,15 +5720,15 @@
         <v>5</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1241830065359477</v>
       </c>
       <c r="J114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1241830065359477</v>
       </c>
       <c r="K114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5268,15 +5755,15 @@
         <v>5</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4651162790697674</v>
       </c>
       <c r="J115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0310077519379846</v>
       </c>
       <c r="K115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4651162790697674</v>
       </c>
     </row>
@@ -5303,15 +5790,15 @@
         <v>5</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.712041884816754</v>
       </c>
     </row>
@@ -5338,15 +5825,15 @@
         <v>5</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5373,15 +5860,15 @@
         <v>5</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4819277108433735</v>
       </c>
     </row>
@@ -5408,15 +5895,15 @@
         <v>5</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5443,15 +5930,15 @@
         <v>5</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1923076923076923</v>
       </c>
       <c r="K120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2403846153846154</v>
       </c>
     </row>
@@ -5478,15 +5965,15 @@
         <v>5</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0566037735849056</v>
       </c>
       <c r="J121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0566037735849056</v>
       </c>
       <c r="K121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0566037735849056</v>
       </c>
     </row>
@@ -5513,15 +6000,15 @@
         <v>5</v>
       </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5548,15 +6035,15 @@
         <v>5</v>
       </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1359223300970873</v>
       </c>
     </row>
@@ -5583,15 +6070,15 @@
         <v>5</v>
       </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.6576576576576576</v>
       </c>
       <c r="K124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4774774774774775</v>
       </c>
     </row>
@@ -5618,15 +6105,15 @@
         <v>5</v>
       </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4094488188976377</v>
       </c>
       <c r="K125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4094488188976377</v>
       </c>
     </row>
@@ -5653,15 +6140,15 @@
         <v>5</v>
       </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3317535545023698</v>
       </c>
       <c r="J126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2085308056872037</v>
       </c>
       <c r="K126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2085308056872037</v>
       </c>
     </row>
@@ -5688,15 +6175,15 @@
         <v>5</v>
       </c>
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5723,15 +6210,15 @@
         <v>5</v>
       </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5758,15 +6245,15 @@
         <v>5</v>
       </c>
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.8391608391608392</v>
       </c>
       <c r="K129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8391608391608392</v>
       </c>
     </row>
@@ -5793,15 +6280,15 @@
         <v>5</v>
       </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3803680981595092</v>
       </c>
       <c r="J130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3803680981595092</v>
       </c>
       <c r="K130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2699386503067485</v>
       </c>
     </row>
@@ -5828,15 +6315,15 @@
         <v>5</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="6">D131/C131</f>
+        <f t="shared" ref="I131:I194" si="9">D131/C131</f>
         <v>1</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="7">E131/C131</f>
+        <f t="shared" ref="J131:J194" si="10">E131/C131</f>
         <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="8">F131/C131</f>
+        <f t="shared" ref="K131:K194" si="11">F131/C131</f>
         <v>2</v>
       </c>
     </row>
@@ -5863,15 +6350,15 @@
         <v>5</v>
       </c>
       <c r="I132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5898,15 +6385,15 @@
         <v>5</v>
       </c>
       <c r="I133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1964285714285714</v>
       </c>
       <c r="J133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1964285714285714</v>
       </c>
       <c r="K133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1339285714285714</v>
       </c>
     </row>
@@ -5933,15 +6420,15 @@
         <v>5</v>
       </c>
       <c r="I134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3988095238095237</v>
       </c>
       <c r="K134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6369047619047619</v>
       </c>
     </row>
@@ -5968,15 +6455,15 @@
         <v>5</v>
       </c>
       <c r="I135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0469483568075117</v>
       </c>
     </row>
@@ -6003,15 +6490,15 @@
         <v>5</v>
       </c>
       <c r="I136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6578947368421053</v>
       </c>
       <c r="K136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.736842105263158</v>
       </c>
     </row>
@@ -6038,15 +6525,15 @@
         <v>5</v>
       </c>
       <c r="I137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.49800796812749</v>
       </c>
       <c r="J137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0557768924302788</v>
       </c>
       <c r="K137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4302788844621515</v>
       </c>
     </row>
@@ -6073,15 +6560,15 @@
         <v>5</v>
       </c>
       <c r="I138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4916666666666667</v>
       </c>
     </row>
@@ -6108,15 +6595,15 @@
         <v>5</v>
       </c>
       <c r="I139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4090909090909092</v>
       </c>
       <c r="J139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="K139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0681818181818181</v>
       </c>
     </row>
@@ -6143,15 +6630,15 @@
         <v>5</v>
       </c>
       <c r="I140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.75</v>
       </c>
       <c r="J140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4523809523809523</v>
       </c>
       <c r="K140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
     </row>
@@ -6178,15 +6665,15 @@
         <v>5</v>
       </c>
       <c r="I141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3771428571428572</v>
       </c>
       <c r="J141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3771428571428572</v>
       </c>
       <c r="K141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6213,15 +6700,15 @@
         <v>5</v>
       </c>
       <c r="I142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6248,15 +6735,15 @@
         <v>5</v>
       </c>
       <c r="I143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2007722007722008</v>
       </c>
     </row>
@@ -6283,15 +6770,15 @@
         <v>5</v>
       </c>
       <c r="I144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1583333333333334</v>
       </c>
       <c r="J144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1583333333333334</v>
       </c>
       <c r="K144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1583333333333334</v>
       </c>
     </row>
@@ -6318,15 +6805,15 @@
         <v>5</v>
       </c>
       <c r="I145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6305418719211822</v>
       </c>
     </row>
@@ -6353,15 +6840,15 @@
         <v>5</v>
       </c>
       <c r="I146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.0079365079365079</v>
       </c>
       <c r="K146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.0079365079365079</v>
       </c>
     </row>
@@ -6388,15 +6875,15 @@
         <v>5</v>
       </c>
       <c r="I147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.399103139013453</v>
       </c>
       <c r="J147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.399103139013453</v>
       </c>
       <c r="K147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3452914798206279</v>
       </c>
     </row>
@@ -6423,15 +6910,15 @@
         <v>5</v>
       </c>
       <c r="I148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5045045045045045</v>
       </c>
     </row>
@@ -6458,15 +6945,15 @@
         <v>5</v>
       </c>
       <c r="I149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.467741935483871</v>
       </c>
       <c r="J149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.467741935483871</v>
       </c>
       <c r="K149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3387096774193548</v>
       </c>
     </row>
@@ -6493,15 +6980,15 @@
         <v>5</v>
       </c>
       <c r="I150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6971428571428571</v>
       </c>
       <c r="K150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6971428571428571</v>
       </c>
     </row>
@@ -6528,15 +7015,15 @@
         <v>5</v>
       </c>
       <c r="I151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.327485380116959</v>
       </c>
     </row>
@@ -6563,15 +7050,15 @@
         <v>6</v>
       </c>
       <c r="I152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.25</v>
       </c>
       <c r="J152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1612903225806452</v>
       </c>
       <c r="K152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.185483870967742</v>
       </c>
     </row>
@@ -6598,15 +7085,15 @@
         <v>6</v>
       </c>
       <c r="I153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4601769911504425</v>
       </c>
       <c r="J153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1415929203539823</v>
       </c>
       <c r="K153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1415929203539823</v>
       </c>
     </row>
@@ -6633,15 +7120,15 @@
         <v>6</v>
       </c>
       <c r="I154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6668,15 +7155,15 @@
         <v>6</v>
       </c>
       <c r="I155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1135371179039302</v>
       </c>
       <c r="J155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1135371179039302</v>
       </c>
       <c r="K155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1135371179039302</v>
       </c>
     </row>
@@ -6703,15 +7190,15 @@
         <v>6</v>
       </c>
       <c r="I156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4279475982532752</v>
       </c>
       <c r="J156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4803493449781659</v>
       </c>
       <c r="K156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4803493449781659</v>
       </c>
     </row>
@@ -6738,15 +7225,15 @@
         <v>6</v>
       </c>
       <c r="I157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0197368421052631</v>
       </c>
       <c r="J157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0197368421052631</v>
       </c>
       <c r="K157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0197368421052631</v>
       </c>
     </row>
@@ -6773,15 +7260,15 @@
         <v>6</v>
       </c>
       <c r="I158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2119815668202765</v>
       </c>
       <c r="J158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.368663594470046</v>
       </c>
       <c r="K158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.368663594470046</v>
       </c>
     </row>
@@ -6808,15 +7295,15 @@
         <v>6</v>
       </c>
       <c r="I159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0606060606060606</v>
       </c>
       <c r="J159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.696969696969697</v>
       </c>
       <c r="K159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5227272727272727</v>
       </c>
     </row>
@@ -6843,15 +7330,15 @@
         <v>6</v>
       </c>
       <c r="I160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6878,15 +7365,15 @@
         <v>6</v>
       </c>
       <c r="I161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3920704845814977</v>
       </c>
       <c r="J161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3920704845814977</v>
       </c>
       <c r="K161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3920704845814977</v>
       </c>
     </row>
@@ -6913,15 +7400,15 @@
         <v>6</v>
       </c>
       <c r="I162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.15625</v>
       </c>
       <c r="J162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.71875</v>
       </c>
       <c r="K162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.71875</v>
       </c>
     </row>
@@ -6948,15 +7435,15 @@
         <v>6</v>
       </c>
       <c r="I163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0956937799043063</v>
       </c>
       <c r="J163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4019138755980862</v>
       </c>
       <c r="K163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4019138755980862</v>
       </c>
     </row>
@@ -6983,15 +7470,15 @@
         <v>6</v>
       </c>
       <c r="I164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2274881516587677</v>
       </c>
       <c r="J164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2654028436018958</v>
       </c>
       <c r="K164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2654028436018958</v>
       </c>
     </row>
@@ -7018,15 +7505,15 @@
         <v>6</v>
       </c>
       <c r="I165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1020408163265305</v>
       </c>
       <c r="J165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3605442176870748</v>
       </c>
       <c r="K165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2551020408163265</v>
       </c>
     </row>
@@ -7053,15 +7540,15 @@
         <v>6</v>
       </c>
       <c r="I166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.074468085106383</v>
       </c>
       <c r="J166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5106382978723405</v>
       </c>
       <c r="K166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5106382978723405</v>
       </c>
     </row>
@@ -7088,15 +7575,15 @@
         <v>6</v>
       </c>
       <c r="I167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4125000000000001</v>
       </c>
       <c r="J167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.125</v>
       </c>
       <c r="K167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.125</v>
       </c>
     </row>
@@ -7123,15 +7610,15 @@
         <v>6</v>
       </c>
       <c r="I168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5155555555555555</v>
       </c>
       <c r="K168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5155555555555555</v>
       </c>
     </row>
@@ -7158,15 +7645,15 @@
         <v>6</v>
       </c>
       <c r="I169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1553398058252426</v>
       </c>
       <c r="J169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.233009708737864</v>
       </c>
       <c r="K169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.233009708737864</v>
       </c>
     </row>
@@ -7193,15 +7680,15 @@
         <v>6</v>
       </c>
       <c r="I170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4887218045112782</v>
       </c>
       <c r="K170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4887218045112782</v>
       </c>
     </row>
@@ -7228,15 +7715,15 @@
         <v>6</v>
       </c>
       <c r="I171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0462046204620461</v>
       </c>
       <c r="J171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3168316831683169</v>
       </c>
       <c r="K171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3168316831683169</v>
       </c>
     </row>
@@ -7263,15 +7750,15 @@
         <v>6</v>
       </c>
       <c r="I172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5550660792951543</v>
       </c>
       <c r="J172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2555066079295154</v>
       </c>
       <c r="K172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2158590308370043</v>
       </c>
     </row>
@@ -7298,15 +7785,15 @@
         <v>6</v>
       </c>
       <c r="I173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0991735537190082</v>
       </c>
       <c r="K173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0991735537190082</v>
       </c>
     </row>
@@ -7333,15 +7820,15 @@
         <v>6</v>
       </c>
       <c r="I174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.084870848708487</v>
       </c>
       <c r="J174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.084870848708487</v>
       </c>
       <c r="K174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.084870848708487</v>
       </c>
     </row>
@@ -7368,15 +7855,15 @@
         <v>6</v>
       </c>
       <c r="I175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5449999999999999</v>
       </c>
       <c r="J175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3149999999999999</v>
       </c>
       <c r="K175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3149999999999999</v>
       </c>
     </row>
@@ -7403,15 +7890,15 @@
         <v>6</v>
       </c>
       <c r="I176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4395604395604396</v>
       </c>
       <c r="J176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0109890109890109</v>
       </c>
       <c r="K176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0109890109890109</v>
       </c>
     </row>
@@ -7438,15 +7925,15 @@
         <v>6</v>
       </c>
       <c r="I177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.358974358974359</v>
       </c>
       <c r="J177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5435897435897437</v>
       </c>
       <c r="K177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5435897435897437</v>
       </c>
     </row>
@@ -7473,15 +7960,15 @@
         <v>6</v>
       </c>
       <c r="I178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0961538461538463</v>
       </c>
       <c r="J178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1057692307692308</v>
       </c>
       <c r="K178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0961538461538463</v>
       </c>
     </row>
@@ -7508,15 +7995,15 @@
         <v>6</v>
       </c>
       <c r="I179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0515463917525774</v>
       </c>
       <c r="J179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.2577319587628866</v>
       </c>
       <c r="K179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.2577319587628866</v>
       </c>
     </row>
@@ -7543,15 +8030,15 @@
         <v>6</v>
       </c>
       <c r="I180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0602409638554218</v>
       </c>
       <c r="J180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4457831325301205</v>
       </c>
       <c r="K180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4457831325301205</v>
       </c>
     </row>
@@ -7578,15 +8065,15 @@
         <v>6</v>
       </c>
       <c r="I181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6338797814207651</v>
       </c>
       <c r="K181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6338797814207651</v>
       </c>
     </row>
@@ -7613,15 +8100,15 @@
         <v>6</v>
       </c>
       <c r="I182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.016</v>
       </c>
       <c r="J182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5920000000000001</v>
       </c>
       <c r="K182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5920000000000001</v>
       </c>
     </row>
@@ -7648,15 +8135,15 @@
         <v>6</v>
       </c>
       <c r="I183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2302158273381294</v>
       </c>
       <c r="J183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2302158273381294</v>
       </c>
       <c r="K183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2302158273381294</v>
       </c>
     </row>
@@ -7683,15 +8170,15 @@
         <v>6</v>
       </c>
       <c r="I184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5228215767634854</v>
       </c>
       <c r="J184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4398340248962656</v>
       </c>
       <c r="K184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5228215767634854</v>
       </c>
     </row>
@@ -7718,15 +8205,15 @@
         <v>6</v>
       </c>
       <c r="I185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7647058823529411</v>
       </c>
       <c r="K185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7647058823529411</v>
       </c>
     </row>
@@ -7753,15 +8240,15 @@
         <v>6</v>
       </c>
       <c r="I186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.9951219512195122</v>
       </c>
       <c r="K186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.9951219512195122</v>
       </c>
     </row>
@@ -7788,15 +8275,15 @@
         <v>6</v>
       </c>
       <c r="I187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4473684210526316</v>
       </c>
       <c r="J187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2675438596491229</v>
       </c>
       <c r="K187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3421052631578947</v>
       </c>
     </row>
@@ -7823,15 +8310,15 @@
         <v>6</v>
       </c>
       <c r="I188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7134502923976609</v>
       </c>
       <c r="K188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7134502923976609</v>
       </c>
     </row>
@@ -7858,15 +8345,15 @@
         <v>6</v>
       </c>
       <c r="I189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7153284671532847</v>
       </c>
       <c r="K189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7153284671532847</v>
       </c>
     </row>
@@ -7893,15 +8380,15 @@
         <v>6</v>
       </c>
       <c r="I190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0981132075471698</v>
       </c>
       <c r="J190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0830188679245283</v>
       </c>
       <c r="K190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0830188679245283</v>
       </c>
     </row>
@@ -7928,15 +8415,15 @@
         <v>6</v>
       </c>
       <c r="I191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1988304093567252</v>
       </c>
       <c r="J191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6549707602339181</v>
       </c>
       <c r="K191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6549707602339181</v>
       </c>
     </row>
@@ -7963,15 +8450,15 @@
         <v>6</v>
       </c>
       <c r="I192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0170454545454546</v>
       </c>
       <c r="J192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0170454545454546</v>
       </c>
       <c r="K192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1590909090909092</v>
       </c>
     </row>
@@ -7998,15 +8485,15 @@
         <v>6</v>
       </c>
       <c r="I193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1767441860465115</v>
       </c>
       <c r="J193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1209302325581396</v>
       </c>
       <c r="K193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2976744186046512</v>
       </c>
     </row>
@@ -8033,15 +8520,15 @@
         <v>6</v>
       </c>
       <c r="I194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4883720930232558</v>
       </c>
       <c r="J194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.2093023255813953</v>
       </c>
       <c r="K194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.2093023255813953</v>
       </c>
     </row>
@@ -8068,15 +8555,15 @@
         <v>6</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="9">D195/C195</f>
+        <f t="shared" ref="I195:I258" si="12">D195/C195</f>
         <v>1.1959459459459461</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J258" si="10">E195/C195</f>
+        <f t="shared" ref="J195:J258" si="13">E195/C195</f>
         <v>1.1824324324324325</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K258" si="11">F195/C195</f>
+        <f t="shared" ref="K195:K258" si="14">F195/C195</f>
         <v>1.1824324324324325</v>
       </c>
     </row>
@@ -8103,15 +8590,15 @@
         <v>6</v>
       </c>
       <c r="I196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1094890510948905</v>
       </c>
       <c r="K196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1094890510948905</v>
       </c>
     </row>
@@ -8138,15 +8625,15 @@
         <v>6</v>
       </c>
       <c r="I197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1809954751131222</v>
       </c>
       <c r="J197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3981900452488687</v>
       </c>
       <c r="K197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3981900452488687</v>
       </c>
     </row>
@@ -8173,15 +8660,15 @@
         <v>6</v>
       </c>
       <c r="I198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3461538461538463</v>
       </c>
       <c r="J198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3365384615384615</v>
       </c>
       <c r="K198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3365384615384615</v>
       </c>
     </row>
@@ -8208,15 +8695,15 @@
         <v>6</v>
       </c>
       <c r="I199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0838323353293413</v>
       </c>
       <c r="J199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0119760479041917</v>
       </c>
       <c r="K199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7065868263473054</v>
       </c>
     </row>
@@ -8243,15 +8730,15 @@
         <v>6</v>
       </c>
       <c r="I200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.8123076923076924</v>
       </c>
       <c r="J200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2953846153846154</v>
       </c>
       <c r="K200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2953846153846154</v>
       </c>
     </row>
@@ -8278,15 +8765,15 @@
         <v>6</v>
       </c>
       <c r="I201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0085470085470085</v>
       </c>
       <c r="J201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5555555555555556</v>
       </c>
       <c r="K201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5555555555555556</v>
       </c>
     </row>
@@ -8313,15 +8800,15 @@
         <v>7</v>
       </c>
       <c r="I202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4814814814814814</v>
       </c>
       <c r="J202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.287037037037037</v>
       </c>
       <c r="K202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.287037037037037</v>
       </c>
     </row>
@@ -8348,15 +8835,15 @@
         <v>7</v>
       </c>
       <c r="I203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0862068965517242</v>
       </c>
       <c r="J203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0632183908045978</v>
       </c>
       <c r="K203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0632183908045978</v>
       </c>
     </row>
@@ -8383,15 +8870,15 @@
         <v>7</v>
       </c>
       <c r="I204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2302631578947369</v>
       </c>
       <c r="J204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3421052631578947</v>
       </c>
       <c r="K204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3421052631578947</v>
       </c>
     </row>
@@ -8418,15 +8905,15 @@
         <v>7</v>
       </c>
       <c r="I205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1768707482993197</v>
       </c>
       <c r="J205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5170068027210883</v>
       </c>
       <c r="K205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.1156462585034013</v>
       </c>
     </row>
@@ -8453,15 +8940,15 @@
         <v>7</v>
       </c>
       <c r="I206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1403508771929824</v>
       </c>
       <c r="J206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1169590643274854</v>
       </c>
       <c r="K206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1169590643274854</v>
       </c>
     </row>
@@ -8488,15 +8975,15 @@
         <v>7</v>
       </c>
       <c r="I207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3511450381679388</v>
       </c>
       <c r="K207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3206106870229009</v>
       </c>
     </row>
@@ -8523,15 +9010,15 @@
         <v>7</v>
       </c>
       <c r="I208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.360248447204969</v>
       </c>
       <c r="J208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="K208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4285714285714286</v>
       </c>
     </row>
@@ -8558,15 +9045,15 @@
         <v>7</v>
       </c>
       <c r="I209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="J209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4727272727272727</v>
       </c>
       <c r="K209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4727272727272727</v>
       </c>
     </row>
@@ -8593,15 +9080,15 @@
         <v>7</v>
       </c>
       <c r="I210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -8628,15 +9115,15 @@
         <v>7</v>
       </c>
       <c r="I211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5320754716981133</v>
       </c>
       <c r="J211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3283018867924528</v>
       </c>
     </row>
@@ -8663,15 +9150,15 @@
         <v>7</v>
       </c>
       <c r="I212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4602510460251046</v>
       </c>
       <c r="J212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5355648535564854</v>
       </c>
       <c r="K212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5355648535564854</v>
       </c>
     </row>
@@ -8698,15 +9185,15 @@
         <v>7</v>
       </c>
       <c r="I213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1818181818181819</v>
       </c>
       <c r="J213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1818181818181819</v>
       </c>
       <c r="K213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1818181818181819</v>
       </c>
     </row>
@@ -8733,15 +9220,15 @@
         <v>7</v>
       </c>
       <c r="I214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5502645502645502</v>
       </c>
       <c r="J214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7883597883597884</v>
       </c>
       <c r="K214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7883597883597884</v>
       </c>
     </row>
@@ -8768,15 +9255,15 @@
         <v>7</v>
       </c>
       <c r="I215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2352941176470589</v>
       </c>
       <c r="J215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0748663101604279</v>
       </c>
       <c r="K215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0748663101604279</v>
       </c>
     </row>
@@ -8803,15 +9290,15 @@
         <v>7</v>
       </c>
       <c r="I216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -8838,15 +9325,15 @@
         <v>7</v>
       </c>
       <c r="I217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1835748792270531</v>
       </c>
       <c r="J217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1256038647342994</v>
       </c>
       <c r="K217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1256038647342994</v>
       </c>
     </row>
@@ -8873,15 +9360,15 @@
         <v>7</v>
       </c>
       <c r="I218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1496598639455782</v>
       </c>
       <c r="J218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3673469387755102</v>
       </c>
       <c r="K218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3673469387755102</v>
       </c>
     </row>
@@ -8908,15 +9395,15 @@
         <v>7</v>
       </c>
       <c r="I219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5306122448979591</v>
       </c>
       <c r="J219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="K219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -8943,15 +9430,15 @@
         <v>7</v>
       </c>
       <c r="I220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4536082474226804</v>
       </c>
       <c r="J220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3195876288659794</v>
       </c>
       <c r="K220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4536082474226804</v>
       </c>
     </row>
@@ -8978,15 +9465,15 @@
         <v>7</v>
       </c>
       <c r="I221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1904761904761905</v>
       </c>
       <c r="J221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1991341991341991</v>
       </c>
       <c r="K221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1168831168831168</v>
       </c>
     </row>
@@ -9013,15 +9500,15 @@
         <v>7</v>
       </c>
       <c r="I222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0759493670886076</v>
       </c>
       <c r="J222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7215189873417722</v>
       </c>
       <c r="K222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7215189873417722</v>
       </c>
     </row>
@@ -9048,15 +9535,15 @@
         <v>7</v>
       </c>
       <c r="I223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.15962441314554</v>
       </c>
       <c r="J223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3990610328638498</v>
       </c>
       <c r="K223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4647887323943662</v>
       </c>
     </row>
@@ -9083,15 +9570,15 @@
         <v>7</v>
       </c>
       <c r="I224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4980988593155893</v>
       </c>
       <c r="J224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.414448669201521</v>
       </c>
       <c r="K224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.414448669201521</v>
       </c>
     </row>
@@ -9118,15 +9605,15 @@
         <v>7</v>
       </c>
       <c r="I225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.213953488372093</v>
       </c>
       <c r="J225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2976744186046512</v>
       </c>
       <c r="K225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2976744186046512</v>
       </c>
     </row>
@@ -9153,15 +9640,15 @@
         <v>7</v>
       </c>
       <c r="I226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.224</v>
       </c>
       <c r="K226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1240000000000001</v>
       </c>
     </row>
@@ -9188,15 +9675,15 @@
         <v>7</v>
       </c>
       <c r="I227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4555984555984556</v>
       </c>
       <c r="K227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4555984555984556</v>
       </c>
     </row>
@@ -9223,15 +9710,15 @@
         <v>7</v>
       </c>
       <c r="I228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9258,15 +9745,15 @@
         <v>7</v>
       </c>
       <c r="I229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="J229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9293,15 +9780,15 @@
         <v>7</v>
       </c>
       <c r="I230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3565217391304347</v>
       </c>
       <c r="J230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1130434782608696</v>
       </c>
       <c r="K230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0695652173913044</v>
       </c>
     </row>
@@ -9328,15 +9815,15 @@
         <v>7</v>
       </c>
       <c r="I231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.401639344262295</v>
       </c>
     </row>
@@ -9363,15 +9850,15 @@
         <v>7</v>
       </c>
       <c r="I232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3798882681564246</v>
       </c>
       <c r="J232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9398,15 +9885,15 @@
         <v>7</v>
       </c>
       <c r="I233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1608391608391608</v>
       </c>
       <c r="J233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0769230769230769</v>
       </c>
       <c r="K233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0769230769230769</v>
       </c>
     </row>
@@ -9433,15 +9920,15 @@
         <v>7</v>
       </c>
       <c r="I234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0256410256410255</v>
       </c>
       <c r="J234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0461538461538462</v>
       </c>
       <c r="K234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0461538461538462</v>
       </c>
     </row>
@@ -9468,15 +9955,15 @@
         <v>7</v>
       </c>
       <c r="I235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2903225806451613</v>
       </c>
       <c r="J235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3870967741935485</v>
       </c>
       <c r="K235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2903225806451613</v>
       </c>
     </row>
@@ -9503,15 +9990,15 @@
         <v>7</v>
       </c>
       <c r="I236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.859504132231405</v>
       </c>
       <c r="K236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6859504132231404</v>
       </c>
     </row>
@@ -9538,15 +10025,15 @@
         <v>7</v>
       </c>
       <c r="I237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0625</v>
       </c>
       <c r="J237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.325</v>
       </c>
       <c r="K237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.325</v>
       </c>
     </row>
@@ -9573,15 +10060,15 @@
         <v>7</v>
       </c>
       <c r="I238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.153061224489796</v>
       </c>
       <c r="J238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1938775510204083</v>
       </c>
       <c r="K238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1938775510204083</v>
       </c>
     </row>
@@ -9608,15 +10095,15 @@
         <v>7</v>
       </c>
       <c r="I239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.654320987654321</v>
       </c>
       <c r="K239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -9643,15 +10130,15 @@
         <v>7</v>
       </c>
       <c r="I240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2851851851851852</v>
       </c>
       <c r="J240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1296296296296295</v>
       </c>
       <c r="K240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1296296296296295</v>
       </c>
     </row>
@@ -9678,15 +10165,15 @@
         <v>7</v>
       </c>
       <c r="I241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3618090452261307</v>
       </c>
       <c r="J241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4522613065326633</v>
       </c>
       <c r="K241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4522613065326633</v>
       </c>
     </row>
@@ -9713,15 +10200,15 @@
         <v>7</v>
       </c>
       <c r="I242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4270833333333333</v>
       </c>
       <c r="J242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4895833333333333</v>
       </c>
       <c r="K242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4895833333333333</v>
       </c>
     </row>
@@ -9748,15 +10235,15 @@
         <v>7</v>
       </c>
       <c r="I243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0318181818181817</v>
       </c>
       <c r="J243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="K243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -9783,15 +10270,15 @@
         <v>7</v>
       </c>
       <c r="I244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2420382165605095</v>
       </c>
       <c r="J244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2420382165605095</v>
       </c>
       <c r="K244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2420382165605095</v>
       </c>
     </row>
@@ -9818,15 +10305,15 @@
         <v>7</v>
       </c>
       <c r="I245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3268482490272373</v>
       </c>
       <c r="J245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3268482490272373</v>
       </c>
       <c r="K245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3268482490272373</v>
       </c>
     </row>
@@ -9853,15 +10340,15 @@
         <v>7</v>
       </c>
       <c r="I246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.6698113207547169</v>
       </c>
       <c r="J246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3113207547169812</v>
       </c>
       <c r="K246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3113207547169812</v>
       </c>
     </row>
@@ -9888,15 +10375,15 @@
         <v>7</v>
       </c>
       <c r="I247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5348837209302326</v>
       </c>
       <c r="K247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5348837209302326</v>
       </c>
     </row>
@@ -9923,15 +10410,15 @@
         <v>7</v>
       </c>
       <c r="I248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1982758620689655</v>
       </c>
       <c r="J248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1982758620689655</v>
       </c>
       <c r="K248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1982758620689655</v>
       </c>
     </row>
@@ -9958,15 +10445,15 @@
         <v>7</v>
       </c>
       <c r="I249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5454545454545454</v>
       </c>
       <c r="J249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4462809917355373</v>
       </c>
       <c r="K249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5041322314049588</v>
       </c>
     </row>
@@ -9993,15 +10480,15 @@
         <v>7</v>
       </c>
       <c r="I250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1807228915662651</v>
       </c>
       <c r="J250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2891566265060241</v>
       </c>
       <c r="K250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2891566265060241</v>
       </c>
     </row>
@@ -10028,15 +10515,15 @@
         <v>7</v>
       </c>
       <c r="I251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5258964143426295</v>
       </c>
       <c r="J251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0876494023904382</v>
       </c>
       <c r="K251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0876494023904382</v>
       </c>
     </row>
@@ -10063,15 +10550,15 @@
         <v>8</v>
       </c>
       <c r="I252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.245353159851301</v>
       </c>
       <c r="J252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5278810408921932</v>
       </c>
       <c r="K252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5278810408921932</v>
       </c>
     </row>
@@ -10098,15 +10585,15 @@
         <v>8</v>
       </c>
       <c r="I253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0497237569060773</v>
       </c>
       <c r="J253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4640883977900552</v>
       </c>
       <c r="K253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4640883977900552</v>
       </c>
     </row>
@@ -10133,15 +10620,15 @@
         <v>8</v>
       </c>
       <c r="I254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1804511278195489</v>
       </c>
       <c r="J254">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1804511278195489</v>
       </c>
       <c r="K254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0864661654135339</v>
       </c>
     </row>
@@ -10168,15 +10655,15 @@
         <v>8</v>
       </c>
       <c r="I255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1581632653061225</v>
       </c>
       <c r="J255">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1581632653061225</v>
       </c>
       <c r="K255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1581632653061225</v>
       </c>
     </row>
@@ -10203,15 +10690,15 @@
         <v>8</v>
       </c>
       <c r="I256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="J256">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5047619047619047</v>
       </c>
       <c r="K256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5047619047619047</v>
       </c>
     </row>
@@ -10238,15 +10725,15 @@
         <v>8</v>
       </c>
       <c r="I257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.368421052631579</v>
       </c>
       <c r="J257">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3026315789473684</v>
       </c>
       <c r="K257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3026315789473684</v>
       </c>
     </row>
@@ -10273,15 +10760,15 @@
         <v>8</v>
       </c>
       <c r="I258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0612244897959184</v>
       </c>
       <c r="J258">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="K258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4336734693877551</v>
       </c>
     </row>
@@ -10308,15 +10795,15 @@
         <v>8</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259:I322" si="12">D259/C259</f>
+        <f t="shared" ref="I259:I322" si="15">D259/C259</f>
         <v>1.380281690140845</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259:J322" si="13">E259/C259</f>
+        <f t="shared" ref="J259:J322" si="16">E259/C259</f>
         <v>1.380281690140845</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:K322" si="14">F259/C259</f>
+        <f t="shared" ref="K259:K322" si="17">F259/C259</f>
         <v>1</v>
       </c>
     </row>
@@ -10343,15 +10830,15 @@
         <v>8</v>
       </c>
       <c r="I260">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4640883977900552</v>
       </c>
       <c r="J260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K260">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -10378,15 +10865,15 @@
         <v>8</v>
       </c>
       <c r="I261">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3668639053254439</v>
       </c>
       <c r="J261">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -10413,15 +10900,15 @@
         <v>8</v>
       </c>
       <c r="I262">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1226993865030674</v>
       </c>
       <c r="J262">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1226993865030674</v>
       </c>
       <c r="K262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.294478527607362</v>
       </c>
     </row>
@@ -10448,15 +10935,15 @@
         <v>8</v>
       </c>
       <c r="I263">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5731707317073171</v>
       </c>
       <c r="J263">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2073170731707317</v>
       </c>
       <c r="K263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2073170731707317</v>
       </c>
     </row>
@@ -10483,15 +10970,15 @@
         <v>8</v>
       </c>
       <c r="I264">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.379746835443038</v>
       </c>
       <c r="J264">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3839662447257384</v>
       </c>
       <c r="K264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3881856540084387</v>
       </c>
     </row>
@@ -10518,15 +11005,15 @@
         <v>8</v>
       </c>
       <c r="I265">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1280487804878048</v>
       </c>
       <c r="J265">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4329268292682926</v>
       </c>
       <c r="K265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4329268292682926</v>
       </c>
     </row>
@@ -10553,15 +11040,15 @@
         <v>8</v>
       </c>
       <c r="I266">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3091787439613527</v>
       </c>
       <c r="J266">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.251207729468599</v>
       </c>
       <c r="K266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -10588,15 +11075,15 @@
         <v>8</v>
       </c>
       <c r="I267">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6161137440758293</v>
       </c>
       <c r="J267">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2748815165876777</v>
       </c>
       <c r="K267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2748815165876777</v>
       </c>
     </row>
@@ -10623,15 +11110,15 @@
         <v>8</v>
       </c>
       <c r="I268">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="J268">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4188034188034189</v>
       </c>
       <c r="K268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4188034188034189</v>
       </c>
     </row>
@@ -10658,15 +11145,15 @@
         <v>8</v>
       </c>
       <c r="I269">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0538461538461539</v>
       </c>
       <c r="J269">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3153846153846154</v>
       </c>
       <c r="K269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3153846153846154</v>
       </c>
     </row>
@@ -10693,15 +11180,15 @@
         <v>8</v>
       </c>
       <c r="I270">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J270">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0878048780487806</v>
       </c>
       <c r="K270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0878048780487806</v>
       </c>
     </row>
@@ -10728,15 +11215,15 @@
         <v>8</v>
       </c>
       <c r="I271">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6506550218340612</v>
       </c>
       <c r="J271">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2707423580786026</v>
       </c>
       <c r="K271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2707423580786026</v>
       </c>
     </row>
@@ -10763,15 +11250,15 @@
         <v>8</v>
       </c>
       <c r="I272">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0921052631578947</v>
       </c>
       <c r="J272">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3552631578947369</v>
       </c>
       <c r="K272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3552631578947369</v>
       </c>
     </row>
@@ -10798,15 +11285,15 @@
         <v>8</v>
       </c>
       <c r="I273">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1338582677165354</v>
       </c>
       <c r="J273">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -10833,15 +11320,15 @@
         <v>8</v>
       </c>
       <c r="I274">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4032921810699588</v>
       </c>
       <c r="J274">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3950617283950617</v>
       </c>
       <c r="K274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3950617283950617</v>
       </c>
     </row>
@@ -10868,15 +11355,15 @@
         <v>8</v>
       </c>
       <c r="I275">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.056910569105691</v>
       </c>
       <c r="J275">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4552845528455285</v>
       </c>
       <c r="K275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4552845528455285</v>
       </c>
     </row>
@@ -10903,15 +11390,15 @@
         <v>8</v>
       </c>
       <c r="I276">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4895833333333333</v>
       </c>
       <c r="J276">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1822916666666667</v>
       </c>
       <c r="K276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1822916666666667</v>
       </c>
     </row>
@@ -10938,15 +11425,15 @@
         <v>8</v>
       </c>
       <c r="I277">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1266968325791855</v>
       </c>
       <c r="J277">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="K277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1176470588235294</v>
       </c>
     </row>
@@ -10973,15 +11460,15 @@
         <v>8</v>
       </c>
       <c r="I278">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5555555555555556</v>
       </c>
       <c r="J278">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2533333333333334</v>
       </c>
       <c r="K278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2533333333333334</v>
       </c>
     </row>
@@ -11008,15 +11495,15 @@
         <v>8</v>
       </c>
       <c r="I279">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J279">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -11043,15 +11530,15 @@
         <v>8</v>
       </c>
       <c r="I280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1618497109826589</v>
       </c>
       <c r="J280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1618497109826589</v>
       </c>
       <c r="K280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1618497109826589</v>
       </c>
     </row>
@@ -11078,15 +11565,15 @@
         <v>8</v>
       </c>
       <c r="I281">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1170212765957446</v>
       </c>
       <c r="J281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -11113,15 +11600,15 @@
         <v>8</v>
       </c>
       <c r="I282">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4618473895582329</v>
       </c>
       <c r="J282">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3373493975903614</v>
       </c>
       <c r="K282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3373493975903614</v>
       </c>
     </row>
@@ -11148,15 +11635,15 @@
         <v>8</v>
       </c>
       <c r="I283">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3181818181818181</v>
       </c>
       <c r="J283">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5619834710743801</v>
       </c>
       <c r="K283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5619834710743801</v>
       </c>
     </row>
@@ -11183,15 +11670,15 @@
         <v>8</v>
       </c>
       <c r="I284">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4592592592592593</v>
       </c>
       <c r="J284">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.7333333333333334</v>
       </c>
       <c r="K284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7333333333333334</v>
       </c>
     </row>
@@ -11218,15 +11705,15 @@
         <v>8</v>
       </c>
       <c r="I285">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J285">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3151515151515152</v>
       </c>
       <c r="K285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3151515151515152</v>
       </c>
     </row>
@@ -11253,15 +11740,15 @@
         <v>8</v>
       </c>
       <c r="I286">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.037037037037037</v>
       </c>
       <c r="J286">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.037037037037037</v>
       </c>
       <c r="K286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.037037037037037</v>
       </c>
     </row>
@@ -11288,15 +11775,15 @@
         <v>8</v>
       </c>
       <c r="I287">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0508474576271187</v>
       </c>
       <c r="J287">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.152542372881356</v>
       </c>
       <c r="K287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.152542372881356</v>
       </c>
     </row>
@@ -11323,15 +11810,15 @@
         <v>8</v>
       </c>
       <c r="I288">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0221402214022139</v>
       </c>
       <c r="J288">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2509225092250922</v>
       </c>
       <c r="K288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2509225092250922</v>
       </c>
     </row>
@@ -11358,15 +11845,15 @@
         <v>8</v>
       </c>
       <c r="I289">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1544715447154472</v>
       </c>
       <c r="J289">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1219512195121952</v>
       </c>
       <c r="K289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1219512195121952</v>
       </c>
     </row>
@@ -11393,15 +11880,15 @@
         <v>8</v>
       </c>
       <c r="I290">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J290">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.45</v>
       </c>
       <c r="K290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.45</v>
       </c>
     </row>
@@ -11428,15 +11915,15 @@
         <v>8</v>
       </c>
       <c r="I291">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2086956521739129</v>
       </c>
       <c r="J291">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1695652173913043</v>
       </c>
       <c r="K291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1695652173913043</v>
       </c>
     </row>
@@ -11463,15 +11950,15 @@
         <v>8</v>
       </c>
       <c r="I292">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J292">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2988505747126438</v>
       </c>
       <c r="K292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2988505747126438</v>
       </c>
     </row>
@@ -11498,15 +11985,15 @@
         <v>8</v>
       </c>
       <c r="I293">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3794871794871795</v>
       </c>
       <c r="J293">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.358974358974359</v>
       </c>
       <c r="K293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.358974358974359</v>
       </c>
     </row>
@@ -11533,15 +12020,15 @@
         <v>8</v>
       </c>
       <c r="I294">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3003952569169961</v>
       </c>
       <c r="J294">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3162055335968379</v>
       </c>
       <c r="K294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3162055335968379</v>
       </c>
     </row>
@@ -11568,15 +12055,15 @@
         <v>8</v>
       </c>
       <c r="I295">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0641891891891893</v>
       </c>
       <c r="J295">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5641891891891893</v>
       </c>
       <c r="K295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2331081081081081</v>
       </c>
     </row>
@@ -11603,15 +12090,15 @@
         <v>8</v>
       </c>
       <c r="I296">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3774834437086092</v>
       </c>
       <c r="J296">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2715231788079471</v>
       </c>
       <c r="K296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2715231788079471</v>
       </c>
     </row>
@@ -11638,15 +12125,15 @@
         <v>8</v>
       </c>
       <c r="I297">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5836431226765799</v>
       </c>
       <c r="J297">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2973977695167287</v>
       </c>
       <c r="K297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2973977695167287</v>
       </c>
     </row>
@@ -11673,15 +12160,15 @@
         <v>8</v>
       </c>
       <c r="I298">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2051282051282051</v>
       </c>
       <c r="J298">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2051282051282051</v>
       </c>
       <c r="K298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2051282051282051</v>
       </c>
     </row>
@@ -11708,15 +12195,15 @@
         <v>8</v>
       </c>
       <c r="I299">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2425531914893617</v>
       </c>
       <c r="J299">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5148936170212766</v>
       </c>
       <c r="K299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5148936170212766</v>
       </c>
     </row>
@@ -11743,15 +12230,15 @@
         <v>8</v>
       </c>
       <c r="I300">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J300">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1826923076923077</v>
       </c>
       <c r="K300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1826923076923077</v>
       </c>
     </row>
@@ -11778,15 +12265,15 @@
         <v>8</v>
       </c>
       <c r="I301">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2835249042145593</v>
       </c>
       <c r="J301">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -11813,15 +12300,15 @@
         <v>9</v>
       </c>
       <c r="I302">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2359550561797752</v>
       </c>
       <c r="J302">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6404494382022472</v>
       </c>
       <c r="K302">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.853932584269663</v>
       </c>
     </row>
@@ -11848,15 +12335,15 @@
         <v>9</v>
       </c>
       <c r="I303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0269058295964126</v>
       </c>
       <c r="J303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3452914798206279</v>
       </c>
       <c r="K303">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7399103139013452</v>
       </c>
     </row>
@@ -11883,15 +12370,15 @@
         <v>9</v>
       </c>
       <c r="I304">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5128205128205128</v>
       </c>
       <c r="J304">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0427350427350428</v>
       </c>
       <c r="K304">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2905982905982907</v>
       </c>
     </row>
@@ -11918,15 +12405,15 @@
         <v>9</v>
       </c>
       <c r="I305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1989247311827957</v>
       </c>
       <c r="J305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1989247311827957</v>
       </c>
       <c r="K305">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1559139784946237</v>
       </c>
     </row>
@@ -11953,15 +12440,15 @@
         <v>9</v>
       </c>
       <c r="I306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1538461538461537</v>
       </c>
       <c r="J306">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3891402714932126</v>
       </c>
       <c r="K306">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4343891402714932</v>
       </c>
     </row>
@@ -11988,15 +12475,15 @@
         <v>9</v>
       </c>
       <c r="I307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4672131147540983</v>
       </c>
       <c r="J307">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0901639344262295</v>
       </c>
       <c r="K307">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.401639344262295</v>
       </c>
     </row>
@@ -12023,15 +12510,15 @@
         <v>9</v>
       </c>
       <c r="I308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1567796610169492</v>
       </c>
       <c r="J308">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K308">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0296610169491525</v>
       </c>
     </row>
@@ -12058,15 +12545,15 @@
         <v>9</v>
       </c>
       <c r="I309">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.223529411764706</v>
       </c>
       <c r="J309">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5764705882352941</v>
       </c>
       <c r="K309">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5764705882352941</v>
       </c>
     </row>
@@ -12093,15 +12580,15 @@
         <v>9</v>
       </c>
       <c r="I310">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="J310">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0555555555555556</v>
       </c>
       <c r="K310">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -12128,15 +12615,15 @@
         <v>9</v>
       </c>
       <c r="I311">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3215859030837005</v>
       </c>
       <c r="J311">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4581497797356828</v>
       </c>
       <c r="K311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.8017621145374449</v>
       </c>
     </row>
@@ -12163,15 +12650,15 @@
         <v>9</v>
       </c>
       <c r="I312">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2058823529411764</v>
       </c>
       <c r="J312">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K312">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -12198,15 +12685,15 @@
         <v>9</v>
       </c>
       <c r="I313">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.8535564853556485</v>
       </c>
       <c r="J313">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6276150627615062</v>
       </c>
       <c r="K313">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.393305439330544</v>
       </c>
     </row>
@@ -12233,15 +12720,15 @@
         <v>9</v>
       </c>
       <c r="I314">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5533980582524272</v>
       </c>
       <c r="J314">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.912621359223301</v>
       </c>
       <c r="K314">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3495145631067962</v>
       </c>
     </row>
@@ -12268,15 +12755,15 @@
         <v>9</v>
       </c>
       <c r="I315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0561224489795917</v>
       </c>
       <c r="J315">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0561224489795917</v>
       </c>
       <c r="K315">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0561224489795917</v>
       </c>
     </row>
@@ -12303,15 +12790,15 @@
         <v>9</v>
       </c>
       <c r="I316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2218181818181819</v>
       </c>
       <c r="J316">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2218181818181819</v>
       </c>
       <c r="K316">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1709090909090909</v>
       </c>
     </row>
@@ -12338,15 +12825,15 @@
         <v>9</v>
       </c>
       <c r="I317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3025830258302582</v>
       </c>
       <c r="J317">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4022140221402215</v>
       </c>
       <c r="K317">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2398523985239853</v>
       </c>
     </row>
@@ -12373,15 +12860,15 @@
         <v>9</v>
       </c>
       <c r="I318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1802575107296138</v>
       </c>
       <c r="J318">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1802575107296138</v>
       </c>
       <c r="K318">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4549356223175967</v>
       </c>
     </row>
@@ -12408,15 +12895,15 @@
         <v>9</v>
       </c>
       <c r="I319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4462809917355373</v>
       </c>
       <c r="J319">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2892561983471074</v>
       </c>
       <c r="K319">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4462809917355373</v>
       </c>
     </row>
@@ -12443,15 +12930,15 @@
         <v>9</v>
       </c>
       <c r="I320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2933333333333332</v>
       </c>
       <c r="J320">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4222222222222223</v>
       </c>
       <c r="K320">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6622222222222223</v>
       </c>
     </row>
@@ -12478,15 +12965,15 @@
         <v>9</v>
       </c>
       <c r="I321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J321">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.76</v>
       </c>
       <c r="K321">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.8133333333333332</v>
       </c>
     </row>
@@ -12513,15 +13000,15 @@
         <v>9</v>
       </c>
       <c r="I322">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2233009708737863</v>
       </c>
       <c r="J322">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5485436893203883</v>
       </c>
       <c r="K322">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2378640776699028</v>
       </c>
     </row>
@@ -12548,15 +13035,15 @@
         <v>9</v>
       </c>
       <c r="I323">
-        <f t="shared" ref="I323:I386" si="15">D323/C323</f>
+        <f t="shared" ref="I323:I386" si="18">D323/C323</f>
         <v>1.1288343558282208</v>
       </c>
       <c r="J323">
-        <f t="shared" ref="J323:J386" si="16">E323/C323</f>
+        <f t="shared" ref="J323:J386" si="19">E323/C323</f>
         <v>1</v>
       </c>
       <c r="K323">
-        <f t="shared" ref="K323:K386" si="17">F323/C323</f>
+        <f t="shared" ref="K323:K386" si="20">F323/C323</f>
         <v>1.6993865030674846</v>
       </c>
     </row>
@@ -12583,15 +13070,15 @@
         <v>9</v>
       </c>
       <c r="I324">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4674556213017751</v>
       </c>
       <c r="J324">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4674556213017751</v>
       </c>
       <c r="K324">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2899408284023668</v>
       </c>
     </row>
@@ -12618,15 +13105,15 @@
         <v>9</v>
       </c>
       <c r="I325">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4235807860262009</v>
       </c>
       <c r="J325">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1528384279475983</v>
       </c>
       <c r="K325">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.222707423580786</v>
       </c>
     </row>
@@ -12653,15 +13140,15 @@
         <v>9</v>
       </c>
       <c r="I326">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3770491803278688</v>
       </c>
       <c r="J326">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1065573770491803</v>
       </c>
       <c r="K326">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5573770491803278</v>
       </c>
     </row>
@@ -12688,15 +13175,15 @@
         <v>9</v>
       </c>
       <c r="I327">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.53</v>
       </c>
       <c r="J327">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.32</v>
       </c>
       <c r="K327">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.24</v>
       </c>
     </row>
@@ -12723,15 +13210,15 @@
         <v>9</v>
       </c>
       <c r="I328">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2448979591836735</v>
       </c>
       <c r="J328">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K328">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2448979591836735</v>
       </c>
     </row>
@@ -12758,15 +13245,15 @@
         <v>9</v>
       </c>
       <c r="I329">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4221311475409837</v>
       </c>
       <c r="J329">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3319672131147542</v>
       </c>
       <c r="K329">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7172131147540983</v>
       </c>
     </row>
@@ -12793,15 +13280,15 @@
         <v>9</v>
       </c>
       <c r="I330">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1972477064220184</v>
       </c>
       <c r="J330">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.8440366972477065</v>
       </c>
       <c r="K330">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.0825688073394497</v>
       </c>
     </row>
@@ -12828,15 +13315,15 @@
         <v>9</v>
       </c>
       <c r="I331">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1647058823529413</v>
       </c>
       <c r="J331">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0078431372549019</v>
       </c>
       <c r="K331">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1647058823529413</v>
       </c>
     </row>
@@ -12863,15 +13350,15 @@
         <v>9</v>
       </c>
       <c r="I332">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2058823529411764</v>
       </c>
       <c r="J332">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.196078431372549</v>
       </c>
       <c r="K332">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5343137254901962</v>
       </c>
     </row>
@@ -12898,15 +13385,15 @@
         <v>9</v>
       </c>
       <c r="I333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2192982456140351</v>
       </c>
       <c r="J333">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5614035087719298</v>
       </c>
       <c r="K333">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5701754385964912</v>
       </c>
     </row>
@@ -12933,15 +13420,15 @@
         <v>9</v>
       </c>
       <c r="I334">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J334">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3243243243243243</v>
       </c>
       <c r="K334">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2316602316602316</v>
       </c>
     </row>
@@ -12968,15 +13455,15 @@
         <v>9</v>
       </c>
       <c r="I335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="J335">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2555555555555555</v>
       </c>
       <c r="K335">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4555555555555555</v>
       </c>
     </row>
@@ -13003,15 +13490,15 @@
         <v>9</v>
       </c>
       <c r="I336">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3699186991869918</v>
       </c>
       <c r="J336">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2479674796747968</v>
       </c>
       <c r="K336">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8170731707317074</v>
       </c>
     </row>
@@ -13038,15 +13525,15 @@
         <v>9</v>
       </c>
       <c r="I337">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J337">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3686274509803922</v>
       </c>
       <c r="K337">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2823529411764707</v>
       </c>
     </row>
@@ -13073,15 +13560,15 @@
         <v>9</v>
       </c>
       <c r="I338">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.358974358974359</v>
       </c>
       <c r="J338">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2974358974358975</v>
       </c>
       <c r="K338">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.9538461538461538</v>
       </c>
     </row>
@@ -13108,15 +13595,15 @@
         <v>9</v>
       </c>
       <c r="I339">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2237442922374429</v>
       </c>
       <c r="J339">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2511415525114156</v>
       </c>
       <c r="K339">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2146118721461188</v>
       </c>
     </row>
@@ -13143,15 +13630,15 @@
         <v>9</v>
       </c>
       <c r="I340">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3914590747330962</v>
       </c>
       <c r="J340">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4021352313167259</v>
       </c>
       <c r="K340">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3914590747330962</v>
       </c>
     </row>
@@ -13178,15 +13665,15 @@
         <v>9</v>
       </c>
       <c r="I341">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J341">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6</v>
       </c>
       <c r="K341">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8363636363636364</v>
       </c>
     </row>
@@ -13213,15 +13700,15 @@
         <v>9</v>
       </c>
       <c r="I342">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4314516129032258</v>
       </c>
       <c r="J342">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.471774193548387</v>
       </c>
       <c r="K342">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2419354838709677</v>
       </c>
     </row>
@@ -13248,15 +13735,15 @@
         <v>9</v>
       </c>
       <c r="I343">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3553113553113554</v>
       </c>
       <c r="J343">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4798534798534799</v>
       </c>
       <c r="K343">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.575091575091575</v>
       </c>
     </row>
@@ -13283,15 +13770,15 @@
         <v>9</v>
       </c>
       <c r="I344">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J344">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7510729613733906</v>
       </c>
       <c r="K344">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.553648068669528</v>
       </c>
     </row>
@@ -13318,15 +13805,15 @@
         <v>9</v>
       </c>
       <c r="I345">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4433962264150944</v>
       </c>
       <c r="J345">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1132075471698113</v>
       </c>
       <c r="K345">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2169811320754718</v>
       </c>
     </row>
@@ -13353,15 +13840,15 @@
         <v>9</v>
       </c>
       <c r="I346">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3319327731092436</v>
       </c>
       <c r="J346">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1722689075630253</v>
       </c>
       <c r="K346">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6176470588235294</v>
       </c>
     </row>
@@ -13388,15 +13875,15 @@
         <v>9</v>
       </c>
       <c r="I347">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3074204946996466</v>
       </c>
       <c r="J347">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.8268551236749118</v>
       </c>
       <c r="K347">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3392226148409894</v>
       </c>
     </row>
@@ -13423,15 +13910,15 @@
         <v>9</v>
       </c>
       <c r="I348">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.970873786407767</v>
       </c>
       <c r="J348">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5679611650485437</v>
       </c>
       <c r="K348">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5922330097087378</v>
       </c>
     </row>
@@ -13458,15 +13945,15 @@
         <v>9</v>
       </c>
       <c r="I349">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1139240506329113</v>
       </c>
       <c r="J349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -13493,15 +13980,15 @@
         <v>9</v>
       </c>
       <c r="I350">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3037383177570094</v>
       </c>
       <c r="J350">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K350">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.691588785046729</v>
       </c>
     </row>
@@ -13528,15 +14015,15 @@
         <v>9</v>
       </c>
       <c r="I351">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3959999999999999</v>
       </c>
       <c r="J351">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.22</v>
       </c>
       <c r="K351">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5</v>
       </c>
     </row>
@@ -13563,15 +14050,15 @@
         <v>10</v>
       </c>
       <c r="I352">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4662162162162162</v>
       </c>
       <c r="J352">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.277027027027027</v>
       </c>
       <c r="K352">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.1621621621621623</v>
       </c>
     </row>
@@ -13598,15 +14085,15 @@
         <v>10</v>
       </c>
       <c r="I353">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.28125</v>
       </c>
       <c r="J353">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5580357142857142</v>
       </c>
       <c r="K353">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5580357142857142</v>
       </c>
     </row>
@@ -13633,15 +14120,15 @@
         <v>10</v>
       </c>
       <c r="I354">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5245901639344261</v>
       </c>
       <c r="J354">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4426229508196722</v>
       </c>
       <c r="K354">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6434426229508197</v>
       </c>
     </row>
@@ -13668,15 +14155,15 @@
         <v>10</v>
       </c>
       <c r="I355">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4802259887005649</v>
       </c>
       <c r="J355">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6045197740112995</v>
       </c>
       <c r="K355">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6045197740112995</v>
       </c>
     </row>
@@ -13703,15 +14190,15 @@
         <v>10</v>
       </c>
       <c r="I356">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.03125</v>
       </c>
       <c r="J356">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.03125</v>
       </c>
       <c r="K356">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.57421875</v>
       </c>
     </row>
@@ -13738,15 +14225,15 @@
         <v>10</v>
       </c>
       <c r="I357">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2845188284518829</v>
       </c>
       <c r="J357">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6569037656903767</v>
       </c>
       <c r="K357">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6401673640167365</v>
       </c>
     </row>
@@ -13773,15 +14260,15 @@
         <v>10</v>
       </c>
       <c r="I358">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J358">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K358">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.9400921658986174</v>
       </c>
     </row>
@@ -13808,15 +14295,15 @@
         <v>10</v>
       </c>
       <c r="I359">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5418994413407821</v>
       </c>
       <c r="J359">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3351955307262571</v>
       </c>
       <c r="K359">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.9385474860335195</v>
       </c>
     </row>
@@ -13843,15 +14330,15 @@
         <v>10</v>
       </c>
       <c r="I360">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0518134715025906</v>
       </c>
       <c r="J360">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3316062176165804</v>
       </c>
       <c r="K360">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6113989637305699</v>
       </c>
     </row>
@@ -13878,15 +14365,15 @@
         <v>10</v>
       </c>
       <c r="I361">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.0355329949238579</v>
       </c>
       <c r="J361">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.233502538071066</v>
       </c>
       <c r="K361">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4263959390862944</v>
       </c>
     </row>
@@ -13913,15 +14400,15 @@
         <v>10</v>
       </c>
       <c r="I362">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4029304029304028</v>
       </c>
       <c r="J362">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2820512820512822</v>
       </c>
       <c r="K362">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1941391941391941</v>
       </c>
     </row>
@@ -13948,15 +14435,15 @@
         <v>10</v>
       </c>
       <c r="I363">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6890756302521008</v>
       </c>
       <c r="J363">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7058823529411764</v>
       </c>
       <c r="K363">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6050420168067228</v>
       </c>
     </row>
@@ -13983,15 +14470,15 @@
         <v>10</v>
       </c>
       <c r="I364">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0251256281407035</v>
       </c>
       <c r="J364">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.9396984924623115</v>
       </c>
       <c r="K364">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.9396984924623115</v>
       </c>
     </row>
@@ -14018,15 +14505,15 @@
         <v>10</v>
       </c>
       <c r="I365">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3542600896860986</v>
       </c>
       <c r="J365">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3273542600896862</v>
       </c>
       <c r="K365">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8475336322869955</v>
       </c>
     </row>
@@ -14053,15 +14540,15 @@
         <v>10</v>
       </c>
       <c r="I366">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1356589147286822</v>
       </c>
       <c r="J366">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7015503875968991</v>
       </c>
       <c r="K366">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7015503875968991</v>
       </c>
     </row>
@@ -14088,15 +14575,15 @@
         <v>10</v>
       </c>
       <c r="I367">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0700389105058365</v>
       </c>
       <c r="J367">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2801556420233462</v>
       </c>
       <c r="K367">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6536964980544746</v>
       </c>
     </row>
@@ -14123,15 +14610,15 @@
         <v>10</v>
       </c>
       <c r="I368">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5057471264367817</v>
       </c>
       <c r="J368">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.132183908045977</v>
       </c>
       <c r="K368">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4942528735632183</v>
       </c>
     </row>
@@ -14158,15 +14645,15 @@
         <v>10</v>
       </c>
       <c r="I369">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1244444444444444</v>
       </c>
       <c r="J369">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1244444444444444</v>
       </c>
       <c r="K369">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4888888888888889</v>
       </c>
     </row>
@@ -14193,15 +14680,15 @@
         <v>10</v>
       </c>
       <c r="I370">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2972972972972974</v>
       </c>
       <c r="J370">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1756756756756757</v>
       </c>
       <c r="K370">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.9121621621621621</v>
       </c>
     </row>
@@ -14228,15 +14715,15 @@
         <v>10</v>
       </c>
       <c r="I371">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.197452229299363</v>
       </c>
       <c r="J371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.0828025477707008</v>
       </c>
       <c r="K371">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.0828025477707008</v>
       </c>
     </row>
@@ -14263,15 +14750,15 @@
         <v>10</v>
       </c>
       <c r="I372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2268041237113403</v>
       </c>
       <c r="J372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1237113402061856</v>
       </c>
       <c r="K372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.036082474226804</v>
       </c>
     </row>
@@ -14298,15 +14785,15 @@
         <v>10</v>
       </c>
       <c r="I373">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3503937007874016</v>
       </c>
       <c r="J373">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6496062992125984</v>
       </c>
       <c r="K373">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6496062992125984</v>
       </c>
     </row>
@@ -14333,15 +14820,15 @@
         <v>10</v>
       </c>
       <c r="I374">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4450000000000001</v>
       </c>
       <c r="J374">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.71</v>
       </c>
       <c r="K374">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.79</v>
       </c>
     </row>
@@ -14368,15 +14855,15 @@
         <v>10</v>
       </c>
       <c r="I375">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3073394495412844</v>
       </c>
       <c r="J375">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0779816513761469</v>
       </c>
       <c r="K375">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2110091743119267</v>
       </c>
     </row>
@@ -14403,15 +14890,15 @@
         <v>10</v>
       </c>
       <c r="I376">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1388888888888888</v>
       </c>
       <c r="J376">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.9944444444444445</v>
       </c>
       <c r="K376">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8611111111111112</v>
       </c>
     </row>
@@ -14438,15 +14925,15 @@
         <v>10</v>
       </c>
       <c r="I377">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1658986175115207</v>
       </c>
       <c r="J377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1658986175115207</v>
       </c>
       <c r="K377">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1658986175115207</v>
       </c>
     </row>
@@ -14473,15 +14960,15 @@
         <v>10</v>
       </c>
       <c r="I378">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1940298507462686</v>
       </c>
       <c r="J378">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2388059701492538</v>
       </c>
       <c r="K378">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2388059701492538</v>
       </c>
     </row>
@@ -14508,15 +14995,15 @@
         <v>10</v>
       </c>
       <c r="I379">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="J379">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.0512820512820511</v>
       </c>
       <c r="K379">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.0512820512820511</v>
       </c>
     </row>
@@ -14543,15 +15030,15 @@
         <v>10</v>
       </c>
       <c r="I380">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6086956521739131</v>
       </c>
       <c r="J380">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7826086956521738</v>
       </c>
       <c r="K380">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7826086956521738</v>
       </c>
     </row>
@@ -14578,15 +15065,15 @@
         <v>10</v>
       </c>
       <c r="I381">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4675324675324675</v>
       </c>
       <c r="J381">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4675324675324675</v>
       </c>
       <c r="K381">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4675324675324675</v>
       </c>
     </row>
@@ -14613,15 +15100,15 @@
         <v>10</v>
       </c>
       <c r="I382">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0568720379146919</v>
       </c>
       <c r="J382">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.90521327014218</v>
       </c>
       <c r="K382">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7440758293838863</v>
       </c>
     </row>
@@ -14648,15 +15135,15 @@
         <v>10</v>
       </c>
       <c r="I383">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3348017621145374</v>
       </c>
       <c r="J383">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4140969162995596</v>
       </c>
       <c r="K383">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4140969162995596</v>
       </c>
     </row>
@@ -14683,15 +15170,15 @@
         <v>10</v>
       </c>
       <c r="I384">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
       <c r="J384">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6282051282051282</v>
       </c>
       <c r="K384">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7435897435897436</v>
       </c>
     </row>
@@ -14718,15 +15205,15 @@
         <v>10</v>
       </c>
       <c r="I385">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J385">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5961538461538463</v>
       </c>
       <c r="K385">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4711538461538463</v>
       </c>
     </row>
@@ -14753,15 +15240,15 @@
         <v>10</v>
       </c>
       <c r="I386">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1788990825688073</v>
       </c>
       <c r="J386">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6146788990825689</v>
       </c>
       <c r="K386">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5596330275229358</v>
       </c>
     </row>
@@ -14788,15 +15275,15 @@
         <v>10</v>
       </c>
       <c r="I387">
-        <f t="shared" ref="I387:I450" si="18">D387/C387</f>
+        <f t="shared" ref="I387:I450" si="21">D387/C387</f>
         <v>1.1134751773049645</v>
       </c>
       <c r="J387">
-        <f t="shared" ref="J387:J450" si="19">E387/C387</f>
+        <f t="shared" ref="J387:J450" si="22">E387/C387</f>
         <v>1.2695035460992907</v>
       </c>
       <c r="K387">
-        <f t="shared" ref="K387:K450" si="20">F387/C387</f>
+        <f t="shared" ref="K387:K450" si="23">F387/C387</f>
         <v>1.2765957446808511</v>
       </c>
     </row>
@@ -14823,15 +15310,15 @@
         <v>10</v>
       </c>
       <c r="I388">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1983122362869199</v>
       </c>
       <c r="J388">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1983122362869199</v>
       </c>
       <c r="K388">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3248945147679325</v>
       </c>
     </row>
@@ -14858,15 +15345,15 @@
         <v>10</v>
       </c>
       <c r="I389">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5189189189189189</v>
       </c>
       <c r="J389">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5513513513513513</v>
       </c>
       <c r="K389">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5513513513513513</v>
       </c>
     </row>
@@ -14893,15 +15380,15 @@
         <v>10</v>
       </c>
       <c r="I390">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.331858407079646</v>
       </c>
       <c r="J390">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1283185840707965</v>
       </c>
       <c r="K390">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6106194690265487</v>
       </c>
     </row>
@@ -14928,15 +15415,15 @@
         <v>10</v>
       </c>
       <c r="I391">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1437125748502994</v>
       </c>
       <c r="J391">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.874251497005988</v>
       </c>
       <c r="K391">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.874251497005988</v>
       </c>
     </row>
@@ -14963,15 +15450,15 @@
         <v>10</v>
       </c>
       <c r="I392">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="J392">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4764705882352942</v>
       </c>
       <c r="K392">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4764705882352942</v>
       </c>
     </row>
@@ -14998,15 +15485,15 @@
         <v>10</v>
       </c>
       <c r="I393">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3280423280423281</v>
       </c>
       <c r="J393">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3280423280423281</v>
       </c>
       <c r="K393">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5343915343915344</v>
       </c>
     </row>
@@ -15033,15 +15520,15 @@
         <v>10</v>
       </c>
       <c r="I394">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.8101265822784811</v>
       </c>
       <c r="J394">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.2341772151898733</v>
       </c>
       <c r="K394">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.4746835443037973</v>
       </c>
     </row>
@@ -15068,15 +15555,15 @@
         <v>10</v>
       </c>
       <c r="I395">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2461538461538462</v>
       </c>
       <c r="J395">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8153846153846154</v>
       </c>
       <c r="K395">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5897435897435896</v>
       </c>
     </row>
@@ -15103,15 +15590,15 @@
         <v>10</v>
       </c>
       <c r="I396">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4662162162162162</v>
       </c>
       <c r="J396">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3648648648648649</v>
       </c>
       <c r="K396">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3445945945945945</v>
       </c>
     </row>
@@ -15138,15 +15625,15 @@
         <v>10</v>
       </c>
       <c r="I397">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.251101321585903</v>
       </c>
       <c r="J397">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4801762114537445</v>
       </c>
       <c r="K397">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4801762114537445</v>
       </c>
     </row>
@@ -15173,15 +15660,15 @@
         <v>10</v>
       </c>
       <c r="I398">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5844748858447488</v>
       </c>
       <c r="J398">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="K398">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -15208,15 +15695,15 @@
         <v>10</v>
       </c>
       <c r="I399">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5231481481481481</v>
       </c>
       <c r="J399">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5416666666666667</v>
       </c>
       <c r="K399">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5416666666666667</v>
       </c>
     </row>
@@ -15243,15 +15730,15 @@
         <v>10</v>
       </c>
       <c r="I400">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1928934010152283</v>
       </c>
       <c r="J400">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1928934010152283</v>
       </c>
       <c r="K400">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4467005076142132</v>
       </c>
     </row>
@@ -15278,15 +15765,15 @@
         <v>10</v>
       </c>
       <c r="I401">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0069930069930071</v>
       </c>
       <c r="J401">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3496503496503496</v>
       </c>
       <c r="K401">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4685314685314685</v>
       </c>
     </row>
@@ -15313,15 +15800,15 @@
         <v>11</v>
       </c>
       <c r="I402">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6956521739130435</v>
       </c>
       <c r="J402">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4869565217391305</v>
       </c>
       <c r="K402">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6956521739130435</v>
       </c>
     </row>
@@ -15348,15 +15835,15 @@
         <v>11</v>
       </c>
       <c r="I403">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3036649214659686</v>
       </c>
       <c r="J403">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3821989528795811</v>
       </c>
       <c r="K403">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8586387434554974</v>
       </c>
     </row>
@@ -15383,15 +15870,15 @@
         <v>11</v>
       </c>
       <c r="I404">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.117117117117117</v>
       </c>
       <c r="J404">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5135135135135136</v>
       </c>
       <c r="K404">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5135135135135136</v>
       </c>
     </row>
@@ -15418,15 +15905,15 @@
         <v>11</v>
       </c>
       <c r="I405">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.107981220657277</v>
       </c>
       <c r="J405">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8497652582159625</v>
       </c>
       <c r="K405">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.075117370892019</v>
       </c>
     </row>
@@ -15453,15 +15940,15 @@
         <v>11</v>
       </c>
       <c r="I406">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1767441860465115</v>
       </c>
       <c r="J406">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4093023255813955</v>
       </c>
       <c r="K406">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4093023255813955</v>
       </c>
     </row>
@@ -15488,15 +15975,15 @@
         <v>11</v>
       </c>
       <c r="I407">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1366120218579234</v>
       </c>
       <c r="J407">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9508196721311475</v>
       </c>
       <c r="K407">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9508196721311475</v>
       </c>
     </row>
@@ -15523,15 +16010,15 @@
         <v>11</v>
       </c>
       <c r="I408">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.40625</v>
       </c>
       <c r="J408">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7421875</v>
       </c>
       <c r="K408">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6015625</v>
       </c>
     </row>
@@ -15558,15 +16045,15 @@
         <v>11</v>
       </c>
       <c r="I409">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2588832487309645</v>
       </c>
       <c r="J409">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6446700507614214</v>
       </c>
       <c r="K409">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5634517766497462</v>
       </c>
     </row>
@@ -15593,15 +16080,15 @@
         <v>11</v>
       </c>
       <c r="I410">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="J410">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
       <c r="K410">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
     </row>
@@ -15628,15 +16115,15 @@
         <v>11</v>
       </c>
       <c r="I411">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.7454545454545454</v>
       </c>
       <c r="J411">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7575757575757576</v>
       </c>
       <c r="K411">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7575757575757576</v>
       </c>
     </row>
@@ -15663,15 +16150,15 @@
         <v>11</v>
       </c>
       <c r="I412">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2561576354679802</v>
       </c>
       <c r="J412">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4039408866995073</v>
       </c>
       <c r="K412">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4039408866995073</v>
       </c>
     </row>
@@ -15698,15 +16185,15 @@
         <v>11</v>
       </c>
       <c r="I413">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0094786729857821</v>
       </c>
       <c r="J413">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9573459715639809</v>
       </c>
       <c r="K413">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9573459715639809</v>
       </c>
     </row>
@@ -15733,15 +16220,15 @@
         <v>11</v>
       </c>
       <c r="I414">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.8536585365853659</v>
       </c>
       <c r="J414">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5203252032520325</v>
       </c>
       <c r="K414">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4796747967479675</v>
       </c>
     </row>
@@ -15768,15 +16255,15 @@
         <v>11</v>
       </c>
       <c r="I415">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.326086956521739</v>
       </c>
       <c r="J415">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5543478260869565</v>
       </c>
       <c r="K415">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.923913043478261</v>
       </c>
     </row>
@@ -15803,15 +16290,15 @@
         <v>11</v>
       </c>
       <c r="I416">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.264808362369338</v>
       </c>
       <c r="J416">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8118466898954704</v>
       </c>
       <c r="K416">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5783972125435539</v>
       </c>
     </row>
@@ -15838,15 +16325,15 @@
         <v>11</v>
       </c>
       <c r="I417">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2054263565891472</v>
       </c>
       <c r="J417">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3914728682170543</v>
       </c>
       <c r="K417">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4341085271317831</v>
       </c>
     </row>
@@ -15873,15 +16360,15 @@
         <v>11</v>
       </c>
       <c r="I418">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1818181818181819</v>
       </c>
       <c r="J418">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5550239234449761</v>
       </c>
       <c r="K418">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5550239234449761</v>
       </c>
     </row>
@@ -15908,15 +16395,15 @@
         <v>11</v>
       </c>
       <c r="I419">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3174603174603174</v>
       </c>
       <c r="J419">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5952380952380953</v>
       </c>
       <c r="K419">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.8095238095238093</v>
       </c>
     </row>
@@ -15943,15 +16430,15 @@
         <v>11</v>
       </c>
       <c r="I420">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.167464114832536</v>
       </c>
       <c r="J420">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7894736842105263</v>
       </c>
       <c r="K420">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4880382775119618</v>
       </c>
     </row>
@@ -15978,15 +16465,15 @@
         <v>11</v>
       </c>
       <c r="I421">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2259887005649717</v>
       </c>
       <c r="J421">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3615819209039548</v>
       </c>
       <c r="K421">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3615819209039548</v>
       </c>
     </row>
@@ -16013,15 +16500,15 @@
         <v>11</v>
       </c>
       <c r="I422">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3779904306220097</v>
       </c>
       <c r="J422">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9425837320574162</v>
       </c>
       <c r="K422">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.937799043062201</v>
       </c>
     </row>
@@ -16048,15 +16535,15 @@
         <v>11</v>
       </c>
       <c r="I423">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3085714285714285</v>
       </c>
       <c r="J423">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6857142857142857</v>
       </c>
       <c r="K423">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.64</v>
       </c>
     </row>
@@ -16083,15 +16570,15 @@
         <v>11</v>
       </c>
       <c r="I424">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2648401826484019</v>
       </c>
       <c r="J424">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1598173515981736</v>
       </c>
       <c r="K424">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8630136986301369</v>
       </c>
     </row>
@@ -16118,15 +16605,15 @@
         <v>11</v>
       </c>
       <c r="I425">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1169590643274854</v>
       </c>
       <c r="J425">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.064327485380117</v>
       </c>
       <c r="K425">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.064327485380117</v>
       </c>
     </row>
@@ -16153,15 +16640,15 @@
         <v>11</v>
       </c>
       <c r="I426">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.21256038647343</v>
       </c>
       <c r="J426">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9661835748792271</v>
       </c>
       <c r="K426">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4830917874396135</v>
       </c>
     </row>
@@ -16188,15 +16675,15 @@
         <v>11</v>
       </c>
       <c r="I427">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1337579617834395</v>
       </c>
       <c r="J427">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7770700636942676</v>
       </c>
       <c r="K427">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.3757961783439492</v>
       </c>
     </row>
@@ -16223,15 +16710,15 @@
         <v>11</v>
       </c>
       <c r="I428">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2574257425742574</v>
       </c>
       <c r="J428">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4356435643564356</v>
       </c>
       <c r="K428">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5544554455445545</v>
       </c>
     </row>
@@ -16258,15 +16745,15 @@
         <v>11</v>
       </c>
       <c r="I429">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="J429">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4297872340425533</v>
       </c>
       <c r="K429">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4297872340425533</v>
       </c>
     </row>
@@ -16293,15 +16780,15 @@
         <v>11</v>
       </c>
       <c r="I430">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2882882882882882</v>
       </c>
       <c r="J430">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3963963963963963</v>
       </c>
       <c r="K430">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6846846846846846</v>
       </c>
     </row>
@@ -16328,15 +16815,15 @@
         <v>11</v>
       </c>
       <c r="I431">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5454545454545454</v>
       </c>
       <c r="J431">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.430622009569378</v>
       </c>
       <c r="K431">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5215311004784688</v>
       </c>
     </row>
@@ -16363,15 +16850,15 @@
         <v>11</v>
       </c>
       <c r="I432">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2088607594936709</v>
       </c>
       <c r="J432">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6962025316455696</v>
       </c>
       <c r="K432">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6962025316455696</v>
       </c>
     </row>
@@ -16398,15 +16885,15 @@
         <v>11</v>
       </c>
       <c r="I433">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1574468085106382</v>
       </c>
       <c r="J433">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6382978723404256</v>
       </c>
       <c r="K433">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8</v>
       </c>
     </row>
@@ -16433,15 +16920,15 @@
         <v>11</v>
       </c>
       <c r="I434">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0920245398773005</v>
       </c>
       <c r="J434">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9754601226993864</v>
       </c>
       <c r="K434">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4969325153374233</v>
       </c>
     </row>
@@ -16468,15 +16955,15 @@
         <v>11</v>
       </c>
       <c r="I435">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.300578034682081</v>
       </c>
       <c r="J435">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5202312138728324</v>
       </c>
       <c r="K435">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7341040462427746</v>
       </c>
     </row>
@@ -16503,15 +16990,15 @@
         <v>11</v>
       </c>
       <c r="I436">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1144578313253013</v>
       </c>
       <c r="J436">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9096385542168675</v>
       </c>
       <c r="K436">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8855421686746987</v>
       </c>
     </row>
@@ -16538,15 +17025,15 @@
         <v>11</v>
       </c>
       <c r="I437">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.40625</v>
       </c>
       <c r="J437">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.35546875</v>
       </c>
       <c r="K437">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.35546875</v>
       </c>
     </row>
@@ -16573,15 +17060,15 @@
         <v>11</v>
       </c>
       <c r="I438">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4508928571428572</v>
       </c>
       <c r="J438">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6205357142857142</v>
       </c>
       <c r="K438">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7946428571428572</v>
       </c>
     </row>
@@ -16608,15 +17095,15 @@
         <v>11</v>
       </c>
       <c r="I439">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3646408839779005</v>
       </c>
       <c r="J439">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3646408839779005</v>
       </c>
       <c r="K439">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3646408839779005</v>
       </c>
     </row>
@@ -16643,15 +17130,15 @@
         <v>11</v>
       </c>
       <c r="I440">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1932367149758454</v>
       </c>
       <c r="J440">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3429951690821256</v>
       </c>
       <c r="K440">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.748792270531401</v>
       </c>
     </row>
@@ -16678,15 +17165,15 @@
         <v>11</v>
       </c>
       <c r="I441">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4591439688715953</v>
       </c>
       <c r="J441">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5136186770428015</v>
       </c>
       <c r="K441">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4357976653696498</v>
       </c>
     </row>
@@ -16713,15 +17200,15 @@
         <v>11</v>
       </c>
       <c r="I442">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2834008097165992</v>
       </c>
       <c r="J442">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8259109311740891</v>
       </c>
       <c r="K442">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2672064777327936</v>
       </c>
     </row>
@@ -16748,15 +17235,15 @@
         <v>11</v>
       </c>
       <c r="I443">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="J443">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6</v>
       </c>
       <c r="K443">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5785714285714285</v>
       </c>
     </row>
@@ -16783,15 +17270,15 @@
         <v>11</v>
       </c>
       <c r="I444">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2295918367346939</v>
       </c>
       <c r="J444">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3724489795918366</v>
       </c>
       <c r="K444">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5561224489795917</v>
       </c>
     </row>
@@ -16818,15 +17305,15 @@
         <v>11</v>
       </c>
       <c r="I445">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.347457627118644</v>
       </c>
       <c r="J445">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5847457627118644</v>
       </c>
       <c r="K445">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.0593220338983049</v>
       </c>
     </row>
@@ -16853,15 +17340,15 @@
         <v>11</v>
       </c>
       <c r="I446">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0326797385620916</v>
       </c>
       <c r="J446">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.542483660130719</v>
       </c>
       <c r="K446">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.542483660130719</v>
       </c>
     </row>
@@ -16888,15 +17375,15 @@
         <v>11</v>
       </c>
       <c r="I447">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.245136186770428</v>
       </c>
       <c r="J447">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7431906614785992</v>
       </c>
       <c r="K447">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5642023346303502</v>
       </c>
     </row>
@@ -16923,15 +17410,15 @@
         <v>11</v>
       </c>
       <c r="I448">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4340425531914893</v>
       </c>
       <c r="J448">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.348936170212766</v>
       </c>
       <c r="K448">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5191489361702128</v>
       </c>
     </row>
@@ -16958,15 +17445,15 @@
         <v>11</v>
       </c>
       <c r="I449">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0558139534883721</v>
       </c>
       <c r="J449">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4697674418604652</v>
       </c>
       <c r="K449">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4697674418604652</v>
       </c>
     </row>
@@ -16993,15 +17480,15 @@
         <v>11</v>
       </c>
       <c r="I450">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3318385650224216</v>
       </c>
       <c r="J450">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6502242152466369</v>
       </c>
       <c r="K450">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7713004484304933</v>
       </c>
     </row>
@@ -17028,15 +17515,15 @@
         <v>11</v>
       </c>
       <c r="I451">
-        <f t="shared" ref="I451" si="21">D451/C451</f>
+        <f t="shared" ref="I451" si="24">D451/C451</f>
         <v>1.2901785714285714</v>
       </c>
       <c r="J451">
-        <f t="shared" ref="J451" si="22">E451/C451</f>
+        <f t="shared" ref="J451" si="25">E451/C451</f>
         <v>1.3883928571428572</v>
       </c>
       <c r="K451">
-        <f t="shared" ref="K451" si="23">F451/C451</f>
+        <f t="shared" ref="K451" si="26">F451/C451</f>
         <v>1.6607142857142858</v>
       </c>
     </row>
